--- a/src/main/resources/template/excel/export/DeliverFormDD.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="O3")</t>
+          <t>jx:area(lastCell="K4")</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>配送入库单</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>${obj.applyNum}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(G3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(H3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(J3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -228,12 +243,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -253,7 +339,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -532,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,6 +721,27 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/src/main/resources/template/excel/export/DeliverFormDD.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="O3")</t>
+          <t>jx:area(lastCell="K4")</t>
         </r>
       </text>
     </comment>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>配送入库单</t>
   </si>
@@ -123,6 +125,21 @@
   </si>
   <si>
     <t>${obj.applyNum}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -130,8 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -146,6 +164,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -153,22 +172,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,10 +245,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,19 +580,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -634,6 +663,27 @@
       <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/excel/export/DeliverFormDD.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="K4")</t>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
@@ -129,15 +131,15 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUM(G3)]</t>
+    <t>$[SUMPRODUCT(J3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUM(H3)]</t>
+    <t>$[SUMPRODUCT(H3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUM(J3)]</t>
+    <t>$[SUMPRODUCT(G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -145,8 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -161,6 +164,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -168,22 +172,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -229,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,13 +245,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -252,74 +263,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,7 +282,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -621,7 +564,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,19 +580,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -722,7 +665,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2"/>
@@ -730,15 +673,15 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="K4" s="2"/>
     </row>

--- a/src/main/resources/template/excel/export/DeliverFormDD.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDD.xlsx
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="K3")</t>
         </r>
       </text>
     </comment>
@@ -58,9 +58,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>配送入库单</t>
-  </si>
-  <si>
     <t>货号</t>
   </si>
   <si>
@@ -140,6 +137,10 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(G3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>店间配送单</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -248,13 +249,13 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,7 +565,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,108 +581,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2"/>
     </row>

--- a/src/main/resources/template/excel/export/DeliverFormDD.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDD.xlsx
@@ -128,19 +128,19 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUMPRODUCT(J3+0)]</t>
+    <t>店间配送单</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
+    <t>$[SUMPRODUCT(H3:H3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>店间配送单</t>
+    <t>$[SUMPRODUCT(J3:J3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,7 +582,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -675,14 +675,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2"/>
     </row>

--- a/src/main/resources/template/excel/export/DeliverFormDD.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDD.xlsx
@@ -132,15 +132,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(H3:H3+0)]</t>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(J3:J3+0)]</t>
+    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/DeliverFormDD.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,10 +128,6 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>店间配送单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -141,6 +137,10 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}店间配送单</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -264,6 +264,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -283,7 +351,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -565,7 +633,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,7 +650,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -675,14 +743,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2"/>
     </row>

--- a/src/main/resources/template/excel/export/DeliverFormDD.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K4")</t>
+          <t>jx:area(lastCell="L4")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="K3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>货号</t>
   </si>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>${branchName}店间配送单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.isGiftDesc}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -264,74 +272,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -351,7 +291,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -630,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,12 +583,12 @@
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="10" width="12.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.625" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="7" max="11" width="12.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.625" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -662,8 +602,9 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,10 +636,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -729,11 +673,14 @@
       <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -753,10 +700,11 @@
         <v>25</v>
       </c>
       <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
